--- a/resource/testCases/Automation Practice - Test Cases.xlsx
+++ b/resource/testCases/Automation Practice - Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haider Ali Khan\eclipse-workspace\AutomationPractice - Haider Ali\resource\testCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11537D6-5642-47AC-AC37-7DEA909D6666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0F23D-E70F-480C-AC2F-9D06F47160CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="244">
   <si>
     <t>Project name:</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -187,10 +184,6 @@
   </si>
   <si>
     <t>User has the link</t>
-  </si>
-  <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice</t>
   </si>
   <si>
     <t xml:space="preserve">User lands on Automation Practice homepage </t>
@@ -205,12 +198,6 @@
     <t>Verify that after hovering on the navigation bar's "Women" heading shows the sub-menu:
 Tops
 Dresses</t>
-  </si>
-  <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Women" Label in the Nav Bar
-4. On Hovering a sub-menu open</t>
   </si>
   <si>
     <t>User lands on Automation Practice homepage and upon hovering the respective sub-menu opens</t>
@@ -225,29 +212,12 @@
 And whether the Dressess has Summer Dress Option</t>
   </si>
   <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Women" Label in the Nav Bar
-4. On Hovering a sub-menu open
-5. The Sub-Menu has Dress as an Section
-6. Dress Section  has an link with the name "Summer Dresses"</t>
-  </si>
-  <si>
     <t>User should lands on Automation Practice homepage and upon hovering the respective sub-menu should open and that sub-menu should have a Dress section which should have a furthur option of "Summer Dress"</t>
   </si>
   <si>
     <t>User should lands on Automation Practice homepage and upon hovering the respective sub-menu opens and that sub-menu has a Dress section which has a furthur option of "Summer Dress"</t>
   </si>
   <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Women" Label in the Nav Bar
-4. On Hovering a sub-menu open
-5. The Sub-Menu has Dress as an Section
-6. Dress Section  has an link with the name "Summer Dresses"
-7. User clicks on the "Summer Dresses" Option</t>
-  </si>
-  <si>
     <t>User lands on Summer Dresses webpage</t>
   </si>
   <si>
@@ -263,16 +233,6 @@
     <t>Verify that Hovering on "Summer Dresses" link in the navigation bar shows the Title "Summer Dresses"</t>
   </si>
   <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Women" Label in the Nav Bar
-4. On Hovering a sub-menu open
-5. The Sub-Menu has Dress as an Section
-6. Dress Section  has an link with the name "Summer Dresses"
-7. User Hovers on the "Summer Dresses" Option
-8. The system shows the Title "Summer Dresses"</t>
-  </si>
-  <si>
     <t>Upon Hovering the user should be able to see the Title Text: "Summer Dresses"</t>
   </si>
   <si>
@@ -280,30 +240,6 @@
   </si>
   <si>
     <t>Dress Link Functionality Check</t>
-  </si>
-  <si>
-    <t>TS_HP_HPL_01</t>
-  </si>
-  <si>
-    <t>TS_HP_WL_01</t>
-  </si>
-  <si>
-    <t>TS_HP_WL_02</t>
-  </si>
-  <si>
-    <t>TS_HP_WL_03</t>
-  </si>
-  <si>
-    <t>TS_HP_WL_04</t>
-  </si>
-  <si>
-    <t>TS_HP_DL_01</t>
-  </si>
-  <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Dresses" Label in the Nav Bar
-4. On Hovering a sub-menu open</t>
   </si>
   <si>
     <t>User should lands on Automation Practice homepage and upon hovering the respective sub-menu should open which should have the options:
@@ -318,41 +254,10 @@
 3. Summer Dresses</t>
   </si>
   <si>
-    <t>TS_HP_HPL</t>
-  </si>
-  <si>
-    <t>TS_HP_WL</t>
-  </si>
-  <si>
-    <t>TS_HP_DL</t>
-  </si>
-  <si>
-    <t>TS_HP_DL_02</t>
-  </si>
-  <si>
-    <t>TS_HP_DL_03</t>
-  </si>
-  <si>
     <t>Verify that after clicking on "Summer Dresses" link in the navigation bar under "Dresses" Heading  goes to the respective page</t>
   </si>
   <si>
     <t>Verify that Hovering on "Summer Dresses" link in the navigation bar under "Dresses" shows the Title "Summer Dresses"</t>
-  </si>
-  <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Dresses" Label in the Nav Bar
-4. On Hovering a sub-menu open
-5. Dress Section  has a link with the name "Summer Dresses"
-6. User clicks on the "Summer Dresses" Option</t>
-  </si>
-  <si>
-    <t>1. Access the website through the link
-2. User land on the home page of Automation Practice
-3. User hovers on "Dresses" Label in the Nav Bar
-4. The sub-menu  has an link with the name "Summer Dresses"
-5. User Hovers on the "Summer Dresses" Option
-6. The system shows the Title "Summer Dresses"</t>
   </si>
   <si>
     <t>Verify that after hovering on the navigation bar's "Dresses" heading shows the sub-menu:
@@ -362,12 +267,6 @@
   </si>
   <si>
     <t>Add to Cart Functionality Check</t>
-  </si>
-  <si>
-    <t>TS_CO_ATC</t>
-  </si>
-  <si>
-    <t>TS_CO_ATC_01</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that clicking on Add to Cart on any item in Summer Dresses </t>
@@ -400,13 +299,7 @@
     <t>Build 1.1</t>
   </si>
   <si>
-    <t>TS_CO_ATC_02</t>
-  </si>
-  <si>
     <t>Verify that added items are shown in the Shopping Cart</t>
-  </si>
-  <si>
-    <t>TS_CO_ATC_03</t>
   </si>
   <si>
     <t>Verify that added items show their discount in the Shopping Cart</t>
@@ -446,9 +339,6 @@
   </si>
   <si>
     <t>User sees that two items are added in to the cart and the "Printed Summer Dress"  5% discount has been applied</t>
-  </si>
-  <si>
-    <t>TS_CO_ATC_04</t>
   </si>
   <si>
     <t>Verify that you can increase the quanitity added items in the Shopping Cart</t>
@@ -476,9 +366,6 @@
   </si>
   <si>
     <t>User is able to see the increase in the quantity and the price</t>
-  </si>
-  <si>
-    <t>TS_CO_ATC_05</t>
   </si>
   <si>
     <t>Verify that you can decrease the quanitity added items in the Shopping Cart</t>
@@ -506,357 +393,653 @@
     <t>Summer Dessses Link Functionality Check</t>
   </si>
   <si>
-    <t>TS_SD_SDL</t>
-  </si>
-  <si>
     <t>Verify that Summer Dresses Link Exists</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Access the website through the link
+    <t>The system will open the Summer Dresses Page with all the items specific for "Summer Dresses"</t>
+  </si>
+  <si>
+    <t>User should land on Summer Dresses Page</t>
+  </si>
+  <si>
+    <t>User lands on Summer Dresses Page</t>
+  </si>
+  <si>
+    <t>Grid Link Functionality Check</t>
+  </si>
+  <si>
+    <t>The system will change the view from Grid to List and show more data for each item</t>
+  </si>
+  <si>
+    <t>User should be able to see more information for each item</t>
+  </si>
+  <si>
+    <t>User is able to see more information for each item</t>
+  </si>
+  <si>
+    <t>Quick View Functionality Check</t>
+  </si>
+  <si>
+    <t>The system will generate a pop up with all details regarding the item</t>
+  </si>
+  <si>
+    <t>User should be able to a pop up open up in the screen</t>
+  </si>
+  <si>
+    <t>Verify if the user can change view from Grid Layout to List Layout</t>
+  </si>
+  <si>
+    <t>Verify if the user click on quick view on any item a pop up opens with all the information regarding the item</t>
+  </si>
+  <si>
+    <t>Verify if the user can increase the quantity of the item in quick view</t>
+  </si>
+  <si>
+    <t>Verify if the user can decrease the quantity of the item in quick view</t>
+  </si>
+  <si>
+    <t>Verify if the user can input the quantity of the item in quick view</t>
+  </si>
+  <si>
+    <t>The system shows a new pop "Product successfully added to your shopping cart" which has the all the details of the items,  their colors, sizes, quantity and the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "10" quantity shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "1" quantity shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "2" quantity shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "2" quantity shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "1" quantity shown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "10" quantity shown </t>
+  </si>
+  <si>
+    <t>Verify if the user can select the size small from size section</t>
+  </si>
+  <si>
+    <t>Verify if the user can select the size medium from size section</t>
+  </si>
+  <si>
+    <t>Verify if the user can select the size large from size section</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Verify if the user click on quick view on any item a pop up opens with all the information regarding the item and upon clicking on the add to cart button the item is added to the cart</t>
+  </si>
+  <si>
+    <t>User should be able to see another pop up open clicking the add to cart button saying "Product successfully added to your shopping cart" and showing all the info from before with the price</t>
+  </si>
+  <si>
+    <t>User is able to see another pop up open clicking the add to cart button saying "Product successfully added to your shopping cart" and showing all the info from before with the price</t>
+  </si>
+  <si>
+    <t>Verify if the user can select any color from color section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "S" size shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "S" size shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "M" size shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "M" size shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "L" size shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "L" size shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "Green" color shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to a new pop-up "product successfully added to card" up which has "Green" color shown above the Quanity heading </t>
+  </si>
+  <si>
+    <t>Verify if the user is shown the correct color pic on choosing any color from the color section</t>
+  </si>
+  <si>
+    <t>The system changes the pic shown on the right to the specified color</t>
+  </si>
+  <si>
+    <t>User should be able to see that picture changes and should show the specified color of the dress</t>
+  </si>
+  <si>
+    <t>User is able to see that picture changes and shows the specified color of the dress</t>
+  </si>
+  <si>
+    <t>Verify if the user can add to wishlist without signing in</t>
+  </si>
+  <si>
+    <t>The system opens a new pop up telling you need to be logged in for wish list</t>
+  </si>
+  <si>
+    <t>User should be able to a small pop up open in a screen that should say that you need to sign in to add in wishlist</t>
+  </si>
+  <si>
+    <t>User is able to a small pop up open in a screen that says that you need to sign in to add in wishlist</t>
+  </si>
+  <si>
+    <t>Verify if the user can add to wishlist after signing in</t>
+  </si>
+  <si>
+    <t>The system opens a new pop up should open telling that the item has been added to the wishlist</t>
+  </si>
+  <si>
+    <t>User should be able to a small pop up open in a screen that should say that item added to wishlist</t>
+  </si>
+  <si>
+    <t>User is able to a small pop up open in a screen that says that  item added to wishlist</t>
+  </si>
+  <si>
+    <t>Verify if the added item</t>
+  </si>
+  <si>
+    <t>Verify if the compare button shows the comparison when items are added to compare</t>
+  </si>
+  <si>
+    <t>User is at Summer Dress Page using the link</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Dresses" Label in the Nav Bar
+4. On Hovering a sub-menu open</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Dresses" Label in the Nav Bar
+4. On Hovering a sub-menu open
+5. Dress Section  has a link with the name "Summer Dresses"
+6. User clicks on the "Summer Dresses" Option</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Women" Label in the Nav Bar
+4. On Hovering a sub-menu open</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Women" Label in the Nav Bar
+4. On Hovering a sub-menu open
+5. The Sub-Menu has Dress as an Section
+6. Dress Section  has an link with the name "Summer Dresses"</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Women" Label in the Nav Bar
+4. On Hovering a sub-menu open
+5. The Sub-Menu has Dress as an Section
+6. Dress Section  has an link with the name "Summer Dresses"
+7. User clicks on the "Summer Dresses" Option</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Women" Label in the Nav Bar
+4. On Hovering a sub-menu open
+5. The Sub-Menu has Dress as an Section
+6. Dress Section  has an link with the name "Summer Dresses"
+7. User Hovers on the "Summer Dresses" Option
+8. The system shows the Title "Summer Dresses"</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User land on the home page of Automation Practice
+3. User hovers on "Dresses" Label in the Nav Bar
+4. The sub-menu  has an link with the name "Summer Dresses"
+5. User Hovers on the "Summer Dresses" Option
+6. The system shows the Title "Summer Dresses"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Access the website through the link:
+http://automationpractice.com/
 2. User land on the home page of Automation Practice
 3. User Hovers on "Dresses"
 4. User clicks on "Summer Dresses" </t>
   </si>
   <si>
-    <t>The system will open the Summer Dresses Page with all the items specific for "Summer Dresses"</t>
-  </si>
-  <si>
-    <t>User should land on Summer Dresses Page</t>
-  </si>
-  <si>
-    <t>User lands on Summer Dresses Page</t>
-  </si>
-  <si>
-    <t>Grid Link Functionality Check</t>
-  </si>
-  <si>
-    <t>TS_SD_GL</t>
-  </si>
-  <si>
-    <t>TS_SD_SDL_01</t>
-  </si>
-  <si>
-    <t>TS_SD_GDL_01</t>
-  </si>
-  <si>
-    <t>http://automationpractice.com/index.php?id_category=11&amp;controller=category</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User clicks on List View
-3. The Layout Changes to List View</t>
-  </si>
-  <si>
-    <t>The system will change the view from Grid to List and show more data for each item</t>
-  </si>
-  <si>
-    <t>User should be able to see more information for each item</t>
-  </si>
-  <si>
-    <t>User is able to see more information for each item</t>
-  </si>
-  <si>
-    <t>Quick View Functionality Check</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_01</t>
-  </si>
-  <si>
-    <t>TS_SD_QV</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View</t>
-  </si>
-  <si>
-    <t>The system will generate a pop up with all details regarding the item</t>
-  </si>
-  <si>
-    <t>User should be able to a pop up open up in the screen</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_02</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_03</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_04</t>
-  </si>
-  <si>
-    <t>Verify if the user can change view from Grid Layout to List Layout</t>
-  </si>
-  <si>
-    <t>Verify if the user click on quick view on any item a pop up opens with all the information regarding the item</t>
-  </si>
-  <si>
-    <t>Verify if the user can increase the quantity of the item in quick view</t>
-  </si>
-  <si>
-    <t>Verify if the user can decrease the quantity of the item in quick view</t>
-  </si>
-  <si>
-    <t>Verify if the user can input the quantity of the item in quick view</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the plus icon
-5. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks in the quantity section
-5. User input 10 in the quantity section
-6. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t>The system shows a new pop "Product successfully added to your shopping cart" which has the all the details of the items,  their colors, sizes, quantity and the price</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the plus icon twice in the Quanity Section
-5. The quantity increases by 2
-6. User clicks on the minus icon in the Quantity Section
-7. The quanityt decreases by 1
-6. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_05</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the size dropdown and selects "S"
-5. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "10" quantity shown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "1" quantity shown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "2" quantity shown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "2" quantity shown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "1" quantity shown </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "10" quantity shown </t>
-  </si>
-  <si>
-    <t>TS_SD_QV_06</t>
-  </si>
-  <si>
-    <t>Verify if the user can select the size small from size section</t>
-  </si>
-  <si>
-    <t>Verify if the user can select the size medium from size section</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the size dropdown and selects "M"
-5. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_07</t>
-  </si>
-  <si>
-    <t>Verify if the user can select the size large from size section</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the size dropdown and selects "L"
-5. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_08</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_09</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_10</t>
-  </si>
-  <si>
-    <t>Verify if the user click on quick view on any item a pop up opens with all the information regarding the item and upon clicking on the add to cart button the item is added to the cart</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on add to cart button</t>
-  </si>
-  <si>
-    <t>User should be able to see another pop up open clicking the add to cart button saying "Product successfully added to your shopping cart" and showing all the info from before with the price</t>
-  </si>
-  <si>
-    <t>User is able to see another pop up open clicking the add to cart button saying "Product successfully added to your shopping cart" and showing all the info from before with the price</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_11</t>
-  </si>
-  <si>
-    <t>Verify if the user can select any color from color section</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the green color button
-5. User clicks on add to cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "S" size shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "S" size shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "M" size shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "M" size shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "L" size shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop up "product successfully added to card" up which has "L" size shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to a new pop-up "product successfully added to card" up which should have "Green" color shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to a new pop-up "product successfully added to card" up which has "Green" color shown above the Quanity heading </t>
-  </si>
-  <si>
-    <t>TS_SD_QV_12</t>
-  </si>
-  <si>
-    <t>Verify if the user is shown the correct color pic on choosing any color from the color section</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the green color button</t>
-  </si>
-  <si>
-    <t>The system changes the pic shown on the right to the specified color</t>
-  </si>
-  <si>
-    <t>User should be able to see that picture changes and should show the specified color of the dress</t>
-  </si>
-  <si>
-    <t>User is able to see that picture changes and shows the specified color of the dress</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_13</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_14</t>
-  </si>
-  <si>
-    <t>Verify if the user can add to wishlist without signing in</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers "Printed Chiffon Dress"
-3. User clicks on the Quick View
-4. User clicks on the heart button which says Add to wishlist</t>
-  </si>
-  <si>
-    <t>The system opens a new pop up telling you need to be logged in for wish list</t>
-  </si>
-  <si>
-    <t>User should be able to a small pop up open in a screen that should say that you need to sign in to add in wishlist</t>
-  </si>
-  <si>
-    <t>User is able to a small pop up open in a screen that says that you need to sign in to add in wishlist</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_15</t>
-  </si>
-  <si>
-    <t>Verify if the user can add to wishlist after signing in</t>
-  </si>
-  <si>
-    <t>Email: tester@gmail.com
-Password: tester123 ,http://automationpractice.com/index.php?id_category=11&amp;controller=category</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User clicks on Sign In Button on the right side of the header
-3. User input the email and password in the EMAIL and Password Fields respectively
-4. User clicks on Sign In
-5. User is redirected to his account page
-6. User hovers on dresses and from there clicks on Summer Dresses
-7. User hovers on "Printed Chiffon Dress"
-8. User clicks on the Quick View
-9. User clicks on the heart button which says Add to wishlist</t>
-  </si>
-  <si>
-    <t>The system opens a new pop up should open telling that the item has been added to the wishlist</t>
-  </si>
-  <si>
-    <t>User should be able to a small pop up open in a screen that should say that item added to wishlist</t>
-  </si>
-  <si>
-    <t>User is able to a small pop up open in a screen that says that  item added to wishlist</t>
-  </si>
-  <si>
-    <t>TS_SD_QV_16</t>
-  </si>
-  <si>
-    <t>Verify if the added item</t>
-  </si>
-  <si>
-    <t>Compare_Functionality Check</t>
-  </si>
-  <si>
-    <t>TS_SD_CM</t>
-  </si>
-  <si>
-    <t>TS_SD_CM_01</t>
-  </si>
-  <si>
-    <t>Verify if the compare button shows the comparison when items are added to compare</t>
-  </si>
-  <si>
-    <t>User is at Summer Dress Page using the link</t>
-  </si>
-  <si>
-    <t>1. User is at the Summer Dress Page
-2. User hovers on the first "Printed Summer Dress" item and clicks on "Add to Compare" Button
-3. User hovers on the Second "Printed Summer Dress" item and clicks on "Add to Compare" Button
-4. User clicks on Compare Button
-5. User is redirected to the compare page</t>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User clicks on List View
+7. The Layout Changes to List View</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page2. User hovers "Printed Chiffon Dress"
+6. User clicks on the Quick View
+7. User clicks on add to cart button</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the plus icon
+9. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page2. User hovers "Printed Chiffon Dress"
+6. User clicks on the Quick View
+7. User clicks on the plus icon twice in the Quanity Section
+8. The quantity increases by 2
+9. User clicks on the minus icon in the Quantity Section
+10. The quanityt decreases by 1
+11. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks in the quantity section
+9. User input 10 in the quantity section
+10. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the size dropdown and selects "S"
+9. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the size dropdown and selects "M"
+9. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the size dropdown and selects "L"
+9. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the green color button
+9. User clicks on add to cart</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the green color button</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers "Printed Chiffon Dress"
+7. User clicks on the Quick View
+8. User clicks on the heart button which says Add to wishlist</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers on the first "Printed Summer Dress" item and clicks on "Add to Compare" Button
+7. User hovers on the Second "Printed Summer Dress" item and clicks on "Add to Compare" Button
+8. User clicks on Compare Button
+9. User is redirected to the compare page</t>
+  </si>
+  <si>
+    <t>TS_HP_01</t>
+  </si>
+  <si>
+    <t>TS_HP_02</t>
+  </si>
+  <si>
+    <t>TS_HP_03</t>
+  </si>
+  <si>
+    <t>TS_HP_01_01</t>
+  </si>
+  <si>
+    <t>TS_HP_02_01</t>
+  </si>
+  <si>
+    <t>TS_HP_02_02</t>
+  </si>
+  <si>
+    <t>TS_HP_03_01</t>
+  </si>
+  <si>
+    <t>TS_HP_03_02</t>
+  </si>
+  <si>
+    <t>TS_HP_03_03</t>
+  </si>
+  <si>
+    <t>TS_HP_03_04</t>
+  </si>
+  <si>
+    <t>TS_HP_02_03</t>
+  </si>
+  <si>
+    <t>TS_SD_01</t>
+  </si>
+  <si>
+    <t>TS_SD_02</t>
+  </si>
+  <si>
+    <t>TS_SD_03</t>
+  </si>
+  <si>
+    <t>TS_SD_04</t>
+  </si>
+  <si>
+    <t>TS_SD_05</t>
+  </si>
+  <si>
+    <t>TS_SD_01_01</t>
+  </si>
+  <si>
+    <t>TS_SD_02_01</t>
+  </si>
+  <si>
+    <t>TS_SD_03_01</t>
+  </si>
+  <si>
+    <t>TS_SD_03_02</t>
+  </si>
+  <si>
+    <t>TS_SD_03_03</t>
+  </si>
+  <si>
+    <t>TS_SD_03_04</t>
+  </si>
+  <si>
+    <t>TS_SD_03_05</t>
+  </si>
+  <si>
+    <t>TS_SD_03_06</t>
+  </si>
+  <si>
+    <t>TS_SD_03_07</t>
+  </si>
+  <si>
+    <t>TS_SD_03_08</t>
+  </si>
+  <si>
+    <t>TS_SD_03_09</t>
+  </si>
+  <si>
+    <t>TS_SD_03_10</t>
+  </si>
+  <si>
+    <t>TS_SD_03_11</t>
+  </si>
+  <si>
+    <t>TS_SD_03_12</t>
+  </si>
+  <si>
+    <t>TS_SD_03_13</t>
+  </si>
+  <si>
+    <t>TS_SD_03_14</t>
+  </si>
+  <si>
+    <t>TS_SD_03_15</t>
+  </si>
+  <si>
+    <t>TS_SD_03_16</t>
+  </si>
+  <si>
+    <t>TS_SD_04_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is at Summer Dress Page </t>
+  </si>
+  <si>
+    <t>TS_CO_01</t>
+  </si>
+  <si>
+    <t>TS_CO_01_01</t>
+  </si>
+  <si>
+    <t>TS_CO_01_02</t>
+  </si>
+  <si>
+    <t>TS_CO_01_03</t>
+  </si>
+  <si>
+    <t>Compare Functionality Check</t>
+  </si>
+  <si>
+    <t>TS_SD_04_02</t>
+  </si>
+  <si>
+    <t>Verify if the added item to compare shows that it has been added for comparison</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers on the first "Printed Summer Dress" item and clicks on "Add to Compare" Button
+7. User hovers on the item again</t>
+  </si>
+  <si>
+    <t>The system shows the item is added for comparison</t>
+  </si>
+  <si>
+    <t>User should be able to see that item is already added for comparison</t>
+  </si>
+  <si>
+    <t>User sees that it says to "Add to Compare" even thought the item is added for comparison</t>
+  </si>
+  <si>
+    <t>Wishlist Functionality Check</t>
+  </si>
+  <si>
+    <t>TS_SD_05_01</t>
+  </si>
+  <si>
+    <t>The system shows the item is added to the wishlist through a pop-up</t>
+  </si>
+  <si>
+    <t>Verify if the user can add the item to wishlist, when user is signed in</t>
+  </si>
+  <si>
+    <t>User should be able to see a pop-up that should say "Added to your wishlist."</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User clicks on Sign In Button on the right side of the header
+7. User input the email in the email field: tester@test.com
+8. User inputs password in the Password Field:
+tester123
+9. User clicks on Sign In
+10. User is redirected to his account page
+11. User hovers on dresses and from there clicks on Summer Dresses
+12. User hovers on "Printed Chiffon Dress"
+13. User clicks on the button which says "Add to wishlist"</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User clicks on Sign In Button on the right side of the header
+7. User input the email in the email field: tester@test.com
+8. User inputs password in the Password Field:
+tester123
+9. User clicks on Sign In
+10. User is redirected to his account page
+11. User hovers on dresses and from there clicks on Summer Dresses
+12. User hovers on "Printed Chiffon Dress"
+13. User clicks on the Quick View
+14. User clicks on the heart button which says Add to wishlist</t>
+  </si>
+  <si>
+    <t>Email: tester@test.com
+Password: tester123
+http://automationpractice.com/</t>
+  </si>
+  <si>
+    <t>TS_SD_05_02</t>
+  </si>
+  <si>
+    <t>Verify if the user can add the item to wishlist, when user is not signed in</t>
+  </si>
+  <si>
+    <t>1. Access the website through the link:
+http://automationpractice.com/
+2. User is at the Homepage
+3. User hovers on Dresses and dropdown open
+4. From the Dropdown user clicks on Summer Dress
+5. The user is redirected to Summer Dress Page
+6. User hovers on "Printed Chiffon Dress"
+7. User clicks on the button which says "Add to wishlist"</t>
+  </si>
+  <si>
+    <t>The system shows the item is NOT added to the wishlist through a pop-up since the user is not logged in</t>
+  </si>
+  <si>
+    <t>User should be able to see a pop-up that should say "You must be logged in to manage your wishlist."</t>
+  </si>
+  <si>
+    <t>User is able to see a pop-up that says "You must be logged in to manage your wishlist."</t>
+  </si>
+  <si>
+    <t>User is able to see a pop-up that says "Added to your wishlist."</t>
+  </si>
+  <si>
+    <t>Check Out Module</t>
+  </si>
+  <si>
+    <t>Summer Dress Module</t>
+  </si>
+  <si>
+    <t>Dashboard Module</t>
+  </si>
+  <si>
+    <t>Quanitity Functionality Check</t>
+  </si>
+  <si>
+    <t>TS_CO_02</t>
+  </si>
+  <si>
+    <t>TS_CO_02_01</t>
+  </si>
+  <si>
+    <t>TS_CO_02_02</t>
+  </si>
+  <si>
+    <t>TS_CO_02_03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -954,8 +1137,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,8 +1237,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1134,8 +1344,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1144,8 +1406,9 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1200,6 +1463,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,22 +1482,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="2">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1443,16 +1723,16 @@
   <dimension ref="A2:H987"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -1463,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -1508,20 +1788,20 @@
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1530,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
@@ -1550,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
@@ -1576,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1602,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -1630,11 +1910,11 @@
       </c>
       <c r="C13" s="15">
         <f t="shared" ref="C13:H13" si="0">SUM(C10:C12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
@@ -1663,7 +1943,7 @@
     <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2642,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7589F4A-BE61-44D0-9E66-F3F49C36B2A2}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2668,113 +2948,85 @@
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:18" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="32"/>
+    </row>
+    <row r="2" spans="1:18" ht="39" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
@@ -2782,16 +3034,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>32</v>
@@ -2803,22 +3055,22 @@
         <v>34</v>
       </c>
       <c r="J3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="N3" s="22" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -2832,16 +3084,16 @@
         <v>30</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>32</v>
@@ -2853,276 +3105,329 @@
         <v>34</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="K5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+    </row>
+    <row r="6" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="O9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="22" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="E10" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="29" t="s">
+      <c r="J10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="90" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="K10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="29" t="s">
+      <c r="N10" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="O10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="90" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R9">
-    <sortCondition ref="I2:I9" customList="SMOKE,SANITY,UI/UX"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R10">
+    <sortCondition ref="I3:I10" customList="SMOKE,SANITY,UI/UX"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{5B7814AC-4E02-4A75-A07A-0C4F095945F5}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{3F0E8306-7352-48A1-9E46-8446AB169204}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{5E83EA01-9A05-48DD-A307-63CFA94D0A44}"/>
-    <hyperlink ref="K7" r:id="rId4" xr:uid="{F30EF599-17EC-462D-A77C-A94D726777A0}"/>
-    <hyperlink ref="K8" r:id="rId5" xr:uid="{127F0D81-08FA-420B-8B2B-0B58269E8C9C}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{776FF8D7-3080-48A6-8362-E62A3CB24CCE}"/>
-    <hyperlink ref="K4" r:id="rId7" xr:uid="{69BD0BCE-61E2-44E4-9198-539DFD09E80D}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{C705B15C-59A0-46B7-9B72-CC09B1F2D21B}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{5B7814AC-4E02-4A75-A07A-0C4F095945F5}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{3F0E8306-7352-48A1-9E46-8446AB169204}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{5E83EA01-9A05-48DD-A307-63CFA94D0A44}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{F30EF599-17EC-462D-A77C-A94D726777A0}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{127F0D81-08FA-420B-8B2B-0B58269E8C9C}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{776FF8D7-3080-48A6-8362-E62A3CB24CCE}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{69BD0BCE-61E2-44E4-9198-539DFD09E80D}"/>
+    <hyperlink ref="K10" r:id="rId8" xr:uid="{C705B15C-59A0-46B7-9B72-CC09B1F2D21B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -3131,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FF6F5D-6558-4C8C-A6A5-DE4689B0EF7A}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3157,127 +3462,102 @@
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:18" s="37" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
+    </row>
+    <row r="2" spans="1:18" ht="39" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>32</v>
@@ -3286,45 +3566,45 @@
         <v>33</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>32</v>
@@ -3336,42 +3616,42 @@
         <v>35</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>32</v>
@@ -3380,45 +3660,45 @@
         <v>33</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>32</v>
@@ -3427,25 +3707,25 @@
         <v>33</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
@@ -3453,19 +3733,19 @@
         <v>31</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>32</v>
@@ -3477,42 +3757,42 @@
         <v>35</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>32</v>
@@ -3524,92 +3804,92 @@
         <v>35</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>33</v>
@@ -3618,92 +3898,92 @@
         <v>34</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>33</v>
@@ -3712,45 +3992,45 @@
         <v>35</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>33</v>
@@ -3759,45 +4039,45 @@
         <v>35</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="67.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>33</v>
@@ -3806,42 +4086,42 @@
         <v>35</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>32</v>
@@ -3853,42 +4133,42 @@
         <v>35</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>32</v>
@@ -3900,246 +4180,430 @@
         <v>35</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="N16" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="146.25" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="29" t="s">
+      <c r="B17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="225" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="225" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="135" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="N17" s="29" t="s">
+      <c r="M22" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="O17" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="146.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="29" t="s">
+      <c r="K23" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="N18" s="29" t="s">
+      <c r="I24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>210</v>
+      <c r="K24" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{AEE496F8-2BCB-4E28-BD15-19AE13FA1F2B}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{6DCE91E8-161C-4CF9-A484-66F04DDB9842}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{3E26364E-CD3B-4749-9FC9-C6DB449DFCDF}"/>
-    <hyperlink ref="K6" r:id="rId4" xr:uid="{84E902B8-CBE5-43D4-8E74-A12BE2456DC8}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{9D05F362-C0BF-4D18-A7C8-8002F6F3A91D}"/>
-    <hyperlink ref="K8" r:id="rId6" xr:uid="{5AF844C8-01AF-4C94-903F-B95CD38C99CE}"/>
-    <hyperlink ref="K9" r:id="rId7" xr:uid="{B3985877-D6A4-4CFE-8B38-B35D579AFD4C}"/>
-    <hyperlink ref="K10" r:id="rId8" xr:uid="{133FD922-1D6E-423E-AB67-C01184986430}"/>
-    <hyperlink ref="K11" r:id="rId9" xr:uid="{BC2B2807-A4A1-42ED-8B9C-CAF14DA1550B}"/>
-    <hyperlink ref="K12" r:id="rId10" xr:uid="{ADA3111F-F2FC-4E32-B480-FD37379FD07C}"/>
-    <hyperlink ref="K13" r:id="rId11" xr:uid="{866759D0-A064-49F2-BF2C-99E6DC2EE7F6}"/>
-    <hyperlink ref="K5" r:id="rId12" xr:uid="{E8403418-D4D8-4337-8049-CC75E11AB814}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{64620ECA-E988-46DB-B455-9F44731BD664}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{B20BAB82-C611-4002-8E17-E5EB2EB2B7AD}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{1AD7CFD9-040A-4452-98FC-B369B237CE66}"/>
-    <hyperlink ref="K19" r:id="rId16" xr:uid="{0AF9C48E-7C8E-4FCA-A4AF-DE1D55800BCC}"/>
-    <hyperlink ref="K17" r:id="rId17" display="http://automationpractice.com/index.php?id_category=11&amp;controller=category" xr:uid="{C75D3390-5A5E-4F5F-80D5-EBDB4FD58AE0}"/>
-    <hyperlink ref="K18" r:id="rId18" display="http://automationpractice.com/index.php?id_category=11&amp;controller=category" xr:uid="{FFB9BE92-FCD8-4ABE-B51E-5CB65862F21F}"/>
-    <hyperlink ref="K20" r:id="rId19" xr:uid="{C282CE21-0377-4F57-BE3C-BC585A1E07B5}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{AEE496F8-2BCB-4E28-BD15-19AE13FA1F2B}"/>
+    <hyperlink ref="K4:K8" r:id="rId2" display="http://automationpractice.com/" xr:uid="{CE72E11D-3353-40BB-89A8-D64750830CAF}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{04CA96E5-5F16-4E08-9FC5-89A2178F298D}"/>
+    <hyperlink ref="K15" r:id="rId4" xr:uid="{DF767F8A-7B61-48D6-8E02-F0D0D8EA6403}"/>
+    <hyperlink ref="K10:K14" r:id="rId5" display="http://automationpractice.com/" xr:uid="{601AD0F7-8568-4E04-9E59-870B4536DA50}"/>
+    <hyperlink ref="K16:K17" r:id="rId6" display="http://automationpractice.com/" xr:uid="{AD808252-AFAE-4336-AB76-7A7DB80B5E5D}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{A580EF05-D444-40C1-BE4E-F09DF0516211}"/>
+    <hyperlink ref="K23" r:id="rId8" display="http://automationpractice.com/index.php?id_category=11&amp;controller=category" xr:uid="{19D569DC-70AA-4DD7-BD46-1F4D91A017B3}"/>
+    <hyperlink ref="K19" r:id="rId9" display="http://automationpractice.com/index.php?id_category=11&amp;controller=category" xr:uid="{7548A334-9C62-4C58-90FA-81978B3F2741}"/>
+    <hyperlink ref="K18" r:id="rId10" display="http://automationpractice.com/index.php?id_category=11&amp;controller=category" xr:uid="{DACBB59B-CEB4-4335-BB1B-A2BA3DE69C97}"/>
+    <hyperlink ref="K24" r:id="rId11" display="http://automationpractice.com/index.php?id_category=11&amp;controller=category" xr:uid="{21AEE4B5-8E8E-44B6-971D-3E3BD2A6E39D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE457D6C-DE99-48DA-9216-30BE548AE0D1}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4158,321 +4622,396 @@
     <col min="14" max="14" width="28.1640625" customWidth="1"/>
     <col min="15" max="15" width="35.5" customWidth="1"/>
     <col min="16" max="16" width="25.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:18" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="32"/>
+    </row>
+    <row r="2" spans="1:18" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="3" spans="1:18" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" ht="236.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="M7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="1:18" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="J8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="1:18" ht="233.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-    </row>
-    <row r="5" spans="1:18" ht="248.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-    </row>
-    <row r="6" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="M8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{AAC4E7DC-912F-4C15-900E-357975849BE9}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{E1FFC2F5-9B78-454E-8784-EFE1AC2AA341}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{2744CC5F-AF98-427F-9E9A-AAF83B883CAC}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{A4393FB4-BED4-47E0-9D3F-C980D64B514F}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{FBFCFC07-58A4-4D98-9FEE-4291CF91AB83}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{AAC4E7DC-912F-4C15-900E-357975849BE9}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{E1FFC2F5-9B78-454E-8784-EFE1AC2AA341}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{2744CC5F-AF98-427F-9E9A-AAF83B883CAC}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{A4393FB4-BED4-47E0-9D3F-C980D64B514F}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{FBFCFC07-58A4-4D98-9FEE-4291CF91AB83}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{B551CE6A-5476-4D7C-8188-E8737F941D0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>